--- a/results/stats/welch/f_sel/stat_cmp_condition.xlsx
+++ b/results/stats/welch/f_sel/stat_cmp_condition.xlsx
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.2794918330308532</v>
+        <v>0.2875264270613108</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
         <v>26</v>
       </c>
       <c r="K16" t="n">
-        <v>19.44642857142857</v>
+        <v>19.88095238095238</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>8.985940690992837</v>
+        <v>9.243279105208282</v>
       </c>
       <c r="N16" t="n">
         <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3056242469733937</v>
+        <v>0.3371191525240022</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J34" t="n">
         <v>26</v>
       </c>
       <c r="K34" t="n">
-        <v>19.44642857142857</v>
+        <v>19.88095238095238</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>8.985940690992837</v>
+        <v>9.243279105208282</v>
       </c>
       <c r="N34" t="n">
         <v>26</v>
       </c>
       <c r="O34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4912280701754387</v>
+        <v>0.4883720930232557</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J52" t="n">
         <v>26</v>
       </c>
       <c r="K52" t="n">
-        <v>21.46428571428572</v>
+        <v>21.69047619047619</v>
       </c>
       <c r="L52" t="n">
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>7.608651761820425</v>
+        <v>7.475318420477374</v>
       </c>
       <c r="N52" t="n">
         <v>26</v>
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.3934505073517359</v>
+        <v>0.397208489643011</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J70" t="n">
         <v>26</v>
       </c>
       <c r="K70" t="n">
-        <v>21.46428571428572</v>
+        <v>21.69047619047619</v>
       </c>
       <c r="L70" t="n">
         <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>7.608651761820425</v>
+        <v>7.475318420477374</v>
       </c>
       <c r="N70" t="n">
         <v>26</v>
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7012,37 +7012,37 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.3000000000000001</v>
+        <v>0.315911730545877</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J88" t="n">
         <v>26</v>
       </c>
       <c r="K88" t="n">
-        <v>19.87037037037037</v>
+        <v>20.475</v>
       </c>
       <c r="L88" t="n">
         <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>8.87160742939769</v>
+        <v>9.071900297071171</v>
       </c>
       <c r="N88" t="n">
         <v>26</v>
       </c>
       <c r="O88" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
       </c>
       <c r="Q88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8362,37 +8362,37 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.3307002811543708</v>
+        <v>0.3747988912478026</v>
       </c>
       <c r="H106" t="n">
         <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J106" t="n">
         <v>26</v>
       </c>
       <c r="K106" t="n">
-        <v>19.87037037037037</v>
+        <v>20.475</v>
       </c>
       <c r="L106" t="n">
         <v>4</v>
       </c>
       <c r="M106" t="n">
-        <v>8.87160742939769</v>
+        <v>9.071900297071171</v>
       </c>
       <c r="N106" t="n">
         <v>26</v>
       </c>
       <c r="O106" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
       </c>
       <c r="Q106" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9712,25 +9712,25 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5087719298245613</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="H124" t="n">
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J124" t="n">
         <v>26</v>
       </c>
       <c r="K124" t="n">
-        <v>21.70909090909091</v>
+        <v>22.02439024390244</v>
       </c>
       <c r="L124" t="n">
         <v>4</v>
       </c>
       <c r="M124" t="n">
-        <v>7.455742697649492</v>
+        <v>7.249853841682498</v>
       </c>
       <c r="N124" t="n">
         <v>26</v>
@@ -9742,7 +9742,7 @@
         <v>4</v>
       </c>
       <c r="Q124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -11062,25 +11062,25 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4093245007809085</v>
+        <v>0.4185951780853772</v>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J142" t="n">
         <v>26</v>
       </c>
       <c r="K142" t="n">
-        <v>21.70909090909091</v>
+        <v>22.02439024390244</v>
       </c>
       <c r="L142" t="n">
         <v>4</v>
       </c>
       <c r="M142" t="n">
-        <v>7.455742697649492</v>
+        <v>7.249853841682498</v>
       </c>
       <c r="N142" t="n">
         <v>26</v>
@@ -11092,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="Q142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J160" t="n">
         <v>20</v>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -13768,7 +13768,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J178" t="n">
         <v>20</v>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -15118,7 +15118,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J196" t="n">
         <v>20</v>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -16468,7 +16468,7 @@
         <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J214" t="n">
         <v>20</v>

--- a/results/stats/welch/f_sel/stat_cmp_condition.xlsx
+++ b/results/stats/welch/f_sel/stat_cmp_condition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S217"/>
+  <dimension ref="A1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16730,6 +16730,5406 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>181</v>
+      </c>
+      <c r="I218" t="n">
+        <v>104</v>
+      </c>
+      <c r="J218" t="n">
+        <v>11</v>
+      </c>
+      <c r="K218" t="n">
+        <v>11</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>11</v>
+      </c>
+      <c r="O218" t="n">
+        <v>11</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>182</v>
+      </c>
+      <c r="I219" t="n">
+        <v>105</v>
+      </c>
+      <c r="J219" t="n">
+        <v>11</v>
+      </c>
+      <c r="K219" t="n">
+        <v>11</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>11</v>
+      </c>
+      <c r="O219" t="n">
+        <v>11</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>101</v>
+      </c>
+      <c r="I220" t="n">
+        <v>111</v>
+      </c>
+      <c r="J220" t="n">
+        <v>11</v>
+      </c>
+      <c r="K220" t="n">
+        <v>11</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>11</v>
+      </c>
+      <c r="O220" t="n">
+        <v>11</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>103</v>
+      </c>
+      <c r="I221" t="n">
+        <v>111</v>
+      </c>
+      <c r="J221" t="n">
+        <v>10</v>
+      </c>
+      <c r="K221" t="n">
+        <v>10</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>10</v>
+      </c>
+      <c r="O221" t="n">
+        <v>10</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>146</v>
+      </c>
+      <c r="I222" t="n">
+        <v>127</v>
+      </c>
+      <c r="J222" t="n">
+        <v>10</v>
+      </c>
+      <c r="K222" t="n">
+        <v>10</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>10</v>
+      </c>
+      <c r="O222" t="n">
+        <v>10</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>150</v>
+      </c>
+      <c r="I223" t="n">
+        <v>128</v>
+      </c>
+      <c r="J223" t="n">
+        <v>9</v>
+      </c>
+      <c r="K223" t="n">
+        <v>9</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>9</v>
+      </c>
+      <c r="O223" t="n">
+        <v>9</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>198</v>
+      </c>
+      <c r="I224" t="n">
+        <v>730</v>
+      </c>
+      <c r="J224" t="n">
+        <v>21</v>
+      </c>
+      <c r="K224" t="n">
+        <v>21</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>21</v>
+      </c>
+      <c r="O224" t="n">
+        <v>21</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>198</v>
+      </c>
+      <c r="I225" t="n">
+        <v>730</v>
+      </c>
+      <c r="J225" t="n">
+        <v>16</v>
+      </c>
+      <c r="K225" t="n">
+        <v>16</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>16</v>
+      </c>
+      <c r="O225" t="n">
+        <v>16</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>152</v>
+      </c>
+      <c r="I226" t="n">
+        <v>199</v>
+      </c>
+      <c r="J226" t="n">
+        <v>21</v>
+      </c>
+      <c r="K226" t="n">
+        <v>21</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>21</v>
+      </c>
+      <c r="O226" t="n">
+        <v>21</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>21</v>
+      </c>
+      <c r="I227" t="n">
+        <v>26</v>
+      </c>
+      <c r="J227" t="n">
+        <v>17</v>
+      </c>
+      <c r="K227" t="n">
+        <v>17</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>17</v>
+      </c>
+      <c r="O227" t="n">
+        <v>17</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>21</v>
+      </c>
+      <c r="I228" t="n">
+        <v>26</v>
+      </c>
+      <c r="J228" t="n">
+        <v>16</v>
+      </c>
+      <c r="K228" t="n">
+        <v>16</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>16</v>
+      </c>
+      <c r="O228" t="n">
+        <v>16</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>37</v>
+      </c>
+      <c r="I229" t="n">
+        <v>40</v>
+      </c>
+      <c r="J229" t="n">
+        <v>20</v>
+      </c>
+      <c r="K229" t="n">
+        <v>20</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>20</v>
+      </c>
+      <c r="O229" t="n">
+        <v>20</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>148</v>
+      </c>
+      <c r="I230" t="n">
+        <v>370</v>
+      </c>
+      <c r="J230" t="n">
+        <v>19</v>
+      </c>
+      <c r="K230" t="n">
+        <v>19</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>19</v>
+      </c>
+      <c r="O230" t="n">
+        <v>19</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>148</v>
+      </c>
+      <c r="I231" t="n">
+        <v>370</v>
+      </c>
+      <c r="J231" t="n">
+        <v>16</v>
+      </c>
+      <c r="K231" t="n">
+        <v>16</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>16</v>
+      </c>
+      <c r="O231" t="n">
+        <v>16</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" t="n">
+        <v>42</v>
+      </c>
+      <c r="J232" t="n">
+        <v>13</v>
+      </c>
+      <c r="K232" t="n">
+        <v>13</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>13</v>
+      </c>
+      <c r="O232" t="n">
+        <v>13</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="n">
+        <v>28</v>
+      </c>
+      <c r="I233" t="n">
+        <v>49</v>
+      </c>
+      <c r="J233" t="n">
+        <v>20</v>
+      </c>
+      <c r="K233" t="n">
+        <v>20</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>20</v>
+      </c>
+      <c r="O233" t="n">
+        <v>20</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="n">
+        <v>945</v>
+      </c>
+      <c r="I234" t="n">
+        <v>802</v>
+      </c>
+      <c r="J234" t="n">
+        <v>20</v>
+      </c>
+      <c r="K234" t="n">
+        <v>20</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>20</v>
+      </c>
+      <c r="O234" t="n">
+        <v>20</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>963</v>
+      </c>
+      <c r="I235" t="n">
+        <v>818</v>
+      </c>
+      <c r="J235" t="n">
+        <v>11</v>
+      </c>
+      <c r="K235" t="n">
+        <v>11</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>11</v>
+      </c>
+      <c r="O235" t="n">
+        <v>11</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>181</v>
+      </c>
+      <c r="I236" t="n">
+        <v>104</v>
+      </c>
+      <c r="J236" t="n">
+        <v>11</v>
+      </c>
+      <c r="K236" t="n">
+        <v>11</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>11</v>
+      </c>
+      <c r="O236" t="n">
+        <v>11</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>182</v>
+      </c>
+      <c r="I237" t="n">
+        <v>105</v>
+      </c>
+      <c r="J237" t="n">
+        <v>11</v>
+      </c>
+      <c r="K237" t="n">
+        <v>11</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>11</v>
+      </c>
+      <c r="O237" t="n">
+        <v>11</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>101</v>
+      </c>
+      <c r="I238" t="n">
+        <v>111</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11</v>
+      </c>
+      <c r="K238" t="n">
+        <v>11</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>11</v>
+      </c>
+      <c r="O238" t="n">
+        <v>11</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>103</v>
+      </c>
+      <c r="I239" t="n">
+        <v>111</v>
+      </c>
+      <c r="J239" t="n">
+        <v>10</v>
+      </c>
+      <c r="K239" t="n">
+        <v>10</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>10</v>
+      </c>
+      <c r="O239" t="n">
+        <v>10</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>146</v>
+      </c>
+      <c r="I240" t="n">
+        <v>127</v>
+      </c>
+      <c r="J240" t="n">
+        <v>10</v>
+      </c>
+      <c r="K240" t="n">
+        <v>10</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>10</v>
+      </c>
+      <c r="O240" t="n">
+        <v>10</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>150</v>
+      </c>
+      <c r="I241" t="n">
+        <v>128</v>
+      </c>
+      <c r="J241" t="n">
+        <v>9</v>
+      </c>
+      <c r="K241" t="n">
+        <v>9</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>9</v>
+      </c>
+      <c r="O241" t="n">
+        <v>9</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>198</v>
+      </c>
+      <c r="I242" t="n">
+        <v>730</v>
+      </c>
+      <c r="J242" t="n">
+        <v>21</v>
+      </c>
+      <c r="K242" t="n">
+        <v>21</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>21</v>
+      </c>
+      <c r="O242" t="n">
+        <v>21</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>198</v>
+      </c>
+      <c r="I243" t="n">
+        <v>730</v>
+      </c>
+      <c r="J243" t="n">
+        <v>16</v>
+      </c>
+      <c r="K243" t="n">
+        <v>16</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>16</v>
+      </c>
+      <c r="O243" t="n">
+        <v>16</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>152</v>
+      </c>
+      <c r="I244" t="n">
+        <v>199</v>
+      </c>
+      <c r="J244" t="n">
+        <v>21</v>
+      </c>
+      <c r="K244" t="n">
+        <v>21</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>21</v>
+      </c>
+      <c r="O244" t="n">
+        <v>21</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>21</v>
+      </c>
+      <c r="I245" t="n">
+        <v>26</v>
+      </c>
+      <c r="J245" t="n">
+        <v>17</v>
+      </c>
+      <c r="K245" t="n">
+        <v>17</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>17</v>
+      </c>
+      <c r="O245" t="n">
+        <v>17</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>21</v>
+      </c>
+      <c r="I246" t="n">
+        <v>26</v>
+      </c>
+      <c r="J246" t="n">
+        <v>16</v>
+      </c>
+      <c r="K246" t="n">
+        <v>16</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>16</v>
+      </c>
+      <c r="O246" t="n">
+        <v>16</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="n">
+        <v>37</v>
+      </c>
+      <c r="I247" t="n">
+        <v>40</v>
+      </c>
+      <c r="J247" t="n">
+        <v>20</v>
+      </c>
+      <c r="K247" t="n">
+        <v>20</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>20</v>
+      </c>
+      <c r="O247" t="n">
+        <v>20</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>148</v>
+      </c>
+      <c r="I248" t="n">
+        <v>370</v>
+      </c>
+      <c r="J248" t="n">
+        <v>19</v>
+      </c>
+      <c r="K248" t="n">
+        <v>19</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>19</v>
+      </c>
+      <c r="O248" t="n">
+        <v>19</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>148</v>
+      </c>
+      <c r="I249" t="n">
+        <v>370</v>
+      </c>
+      <c r="J249" t="n">
+        <v>16</v>
+      </c>
+      <c r="K249" t="n">
+        <v>16</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>16</v>
+      </c>
+      <c r="O249" t="n">
+        <v>16</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" t="n">
+        <v>42</v>
+      </c>
+      <c r="J250" t="n">
+        <v>13</v>
+      </c>
+      <c r="K250" t="n">
+        <v>13</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>13</v>
+      </c>
+      <c r="O250" t="n">
+        <v>13</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>28</v>
+      </c>
+      <c r="I251" t="n">
+        <v>49</v>
+      </c>
+      <c r="J251" t="n">
+        <v>20</v>
+      </c>
+      <c r="K251" t="n">
+        <v>20</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>20</v>
+      </c>
+      <c r="O251" t="n">
+        <v>20</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>945</v>
+      </c>
+      <c r="I252" t="n">
+        <v>802</v>
+      </c>
+      <c r="J252" t="n">
+        <v>20</v>
+      </c>
+      <c r="K252" t="n">
+        <v>20</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>20</v>
+      </c>
+      <c r="O252" t="n">
+        <v>20</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>963</v>
+      </c>
+      <c r="I253" t="n">
+        <v>818</v>
+      </c>
+      <c r="J253" t="n">
+        <v>11</v>
+      </c>
+      <c r="K253" t="n">
+        <v>11</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>11</v>
+      </c>
+      <c r="O253" t="n">
+        <v>11</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>181</v>
+      </c>
+      <c r="I254" t="n">
+        <v>104</v>
+      </c>
+      <c r="J254" t="n">
+        <v>11</v>
+      </c>
+      <c r="K254" t="n">
+        <v>11</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>11</v>
+      </c>
+      <c r="O254" t="n">
+        <v>11</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>182</v>
+      </c>
+      <c r="I255" t="n">
+        <v>105</v>
+      </c>
+      <c r="J255" t="n">
+        <v>11</v>
+      </c>
+      <c r="K255" t="n">
+        <v>11</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>11</v>
+      </c>
+      <c r="O255" t="n">
+        <v>11</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+      <c r="H256" t="n">
+        <v>101</v>
+      </c>
+      <c r="I256" t="n">
+        <v>111</v>
+      </c>
+      <c r="J256" t="n">
+        <v>11</v>
+      </c>
+      <c r="K256" t="n">
+        <v>11</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>11</v>
+      </c>
+      <c r="O256" t="n">
+        <v>11</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="n">
+        <v>103</v>
+      </c>
+      <c r="I257" t="n">
+        <v>111</v>
+      </c>
+      <c r="J257" t="n">
+        <v>10</v>
+      </c>
+      <c r="K257" t="n">
+        <v>10</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>10</v>
+      </c>
+      <c r="O257" t="n">
+        <v>10</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>146</v>
+      </c>
+      <c r="I258" t="n">
+        <v>127</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10</v>
+      </c>
+      <c r="K258" t="n">
+        <v>10</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>10</v>
+      </c>
+      <c r="O258" t="n">
+        <v>10</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>150</v>
+      </c>
+      <c r="I259" t="n">
+        <v>128</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10</v>
+      </c>
+      <c r="K259" t="n">
+        <v>10</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>10</v>
+      </c>
+      <c r="O259" t="n">
+        <v>10</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>198</v>
+      </c>
+      <c r="I260" t="n">
+        <v>730</v>
+      </c>
+      <c r="J260" t="n">
+        <v>21</v>
+      </c>
+      <c r="K260" t="n">
+        <v>21</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>21</v>
+      </c>
+      <c r="O260" t="n">
+        <v>21</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+      <c r="H261" t="n">
+        <v>198</v>
+      </c>
+      <c r="I261" t="n">
+        <v>730</v>
+      </c>
+      <c r="J261" t="n">
+        <v>16</v>
+      </c>
+      <c r="K261" t="n">
+        <v>16</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>16</v>
+      </c>
+      <c r="O261" t="n">
+        <v>16</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="n">
+        <v>152</v>
+      </c>
+      <c r="I262" t="n">
+        <v>199</v>
+      </c>
+      <c r="J262" t="n">
+        <v>21</v>
+      </c>
+      <c r="K262" t="n">
+        <v>21</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>21</v>
+      </c>
+      <c r="O262" t="n">
+        <v>21</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="n">
+        <v>21</v>
+      </c>
+      <c r="I263" t="n">
+        <v>26</v>
+      </c>
+      <c r="J263" t="n">
+        <v>17</v>
+      </c>
+      <c r="K263" t="n">
+        <v>17</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>17</v>
+      </c>
+      <c r="O263" t="n">
+        <v>17</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="n">
+        <v>21</v>
+      </c>
+      <c r="I264" t="n">
+        <v>26</v>
+      </c>
+      <c r="J264" t="n">
+        <v>16</v>
+      </c>
+      <c r="K264" t="n">
+        <v>16</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>16</v>
+      </c>
+      <c r="O264" t="n">
+        <v>16</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>37</v>
+      </c>
+      <c r="I265" t="n">
+        <v>40</v>
+      </c>
+      <c r="J265" t="n">
+        <v>20</v>
+      </c>
+      <c r="K265" t="n">
+        <v>20</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>20</v>
+      </c>
+      <c r="O265" t="n">
+        <v>20</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>148</v>
+      </c>
+      <c r="I266" t="n">
+        <v>370</v>
+      </c>
+      <c r="J266" t="n">
+        <v>19</v>
+      </c>
+      <c r="K266" t="n">
+        <v>19</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>19</v>
+      </c>
+      <c r="O266" t="n">
+        <v>19</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>148</v>
+      </c>
+      <c r="I267" t="n">
+        <v>370</v>
+      </c>
+      <c r="J267" t="n">
+        <v>16</v>
+      </c>
+      <c r="K267" t="n">
+        <v>16</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>16</v>
+      </c>
+      <c r="O267" t="n">
+        <v>16</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" t="n">
+        <v>42</v>
+      </c>
+      <c r="J268" t="n">
+        <v>13</v>
+      </c>
+      <c r="K268" t="n">
+        <v>13</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>13</v>
+      </c>
+      <c r="O268" t="n">
+        <v>13</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
+      <c r="H269" t="n">
+        <v>28</v>
+      </c>
+      <c r="I269" t="n">
+        <v>49</v>
+      </c>
+      <c r="J269" t="n">
+        <v>20</v>
+      </c>
+      <c r="K269" t="n">
+        <v>20</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>20</v>
+      </c>
+      <c r="O269" t="n">
+        <v>20</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+      <c r="H270" t="n">
+        <v>945</v>
+      </c>
+      <c r="I270" t="n">
+        <v>802</v>
+      </c>
+      <c r="J270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K270" t="n">
+        <v>24</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>24</v>
+      </c>
+      <c r="O270" t="n">
+        <v>24</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+      <c r="H271" t="n">
+        <v>963</v>
+      </c>
+      <c r="I271" t="n">
+        <v>818</v>
+      </c>
+      <c r="J271" t="n">
+        <v>24</v>
+      </c>
+      <c r="K271" t="n">
+        <v>24</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>24</v>
+      </c>
+      <c r="O271" t="n">
+        <v>24</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="n">
+        <v>181</v>
+      </c>
+      <c r="I272" t="n">
+        <v>104</v>
+      </c>
+      <c r="J272" t="n">
+        <v>11</v>
+      </c>
+      <c r="K272" t="n">
+        <v>11</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>11</v>
+      </c>
+      <c r="O272" t="n">
+        <v>11</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>182</v>
+      </c>
+      <c r="I273" t="n">
+        <v>105</v>
+      </c>
+      <c r="J273" t="n">
+        <v>11</v>
+      </c>
+      <c r="K273" t="n">
+        <v>11</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>11</v>
+      </c>
+      <c r="O273" t="n">
+        <v>11</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="n">
+        <v>101</v>
+      </c>
+      <c r="I274" t="n">
+        <v>111</v>
+      </c>
+      <c r="J274" t="n">
+        <v>11</v>
+      </c>
+      <c r="K274" t="n">
+        <v>11</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>11</v>
+      </c>
+      <c r="O274" t="n">
+        <v>11</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+      <c r="H275" t="n">
+        <v>103</v>
+      </c>
+      <c r="I275" t="n">
+        <v>111</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10</v>
+      </c>
+      <c r="K275" t="n">
+        <v>10</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>10</v>
+      </c>
+      <c r="O275" t="n">
+        <v>10</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="n">
+        <v>146</v>
+      </c>
+      <c r="I276" t="n">
+        <v>127</v>
+      </c>
+      <c r="J276" t="n">
+        <v>10</v>
+      </c>
+      <c r="K276" t="n">
+        <v>10</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>10</v>
+      </c>
+      <c r="O276" t="n">
+        <v>10</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="n">
+        <v>150</v>
+      </c>
+      <c r="I277" t="n">
+        <v>128</v>
+      </c>
+      <c r="J277" t="n">
+        <v>10</v>
+      </c>
+      <c r="K277" t="n">
+        <v>10</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>10</v>
+      </c>
+      <c r="O277" t="n">
+        <v>10</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
+      <c r="H278" t="n">
+        <v>198</v>
+      </c>
+      <c r="I278" t="n">
+        <v>730</v>
+      </c>
+      <c r="J278" t="n">
+        <v>21</v>
+      </c>
+      <c r="K278" t="n">
+        <v>21</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>21</v>
+      </c>
+      <c r="O278" t="n">
+        <v>21</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="n">
+        <v>198</v>
+      </c>
+      <c r="I279" t="n">
+        <v>730</v>
+      </c>
+      <c r="J279" t="n">
+        <v>16</v>
+      </c>
+      <c r="K279" t="n">
+        <v>16</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>16</v>
+      </c>
+      <c r="O279" t="n">
+        <v>16</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>152</v>
+      </c>
+      <c r="I280" t="n">
+        <v>199</v>
+      </c>
+      <c r="J280" t="n">
+        <v>21</v>
+      </c>
+      <c r="K280" t="n">
+        <v>21</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>21</v>
+      </c>
+      <c r="O280" t="n">
+        <v>21</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>21</v>
+      </c>
+      <c r="I281" t="n">
+        <v>26</v>
+      </c>
+      <c r="J281" t="n">
+        <v>17</v>
+      </c>
+      <c r="K281" t="n">
+        <v>17</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>17</v>
+      </c>
+      <c r="O281" t="n">
+        <v>17</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="n">
+        <v>21</v>
+      </c>
+      <c r="I282" t="n">
+        <v>26</v>
+      </c>
+      <c r="J282" t="n">
+        <v>16</v>
+      </c>
+      <c r="K282" t="n">
+        <v>16</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>16</v>
+      </c>
+      <c r="O282" t="n">
+        <v>16</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+      <c r="H283" t="n">
+        <v>37</v>
+      </c>
+      <c r="I283" t="n">
+        <v>40</v>
+      </c>
+      <c r="J283" t="n">
+        <v>20</v>
+      </c>
+      <c r="K283" t="n">
+        <v>20</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>20</v>
+      </c>
+      <c r="O283" t="n">
+        <v>20</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+      <c r="H284" t="n">
+        <v>148</v>
+      </c>
+      <c r="I284" t="n">
+        <v>370</v>
+      </c>
+      <c r="J284" t="n">
+        <v>19</v>
+      </c>
+      <c r="K284" t="n">
+        <v>19</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>19</v>
+      </c>
+      <c r="O284" t="n">
+        <v>19</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+      <c r="H285" t="n">
+        <v>148</v>
+      </c>
+      <c r="I285" t="n">
+        <v>370</v>
+      </c>
+      <c r="J285" t="n">
+        <v>16</v>
+      </c>
+      <c r="K285" t="n">
+        <v>16</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>16</v>
+      </c>
+      <c r="O285" t="n">
+        <v>16</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2</v>
+      </c>
+      <c r="I286" t="n">
+        <v>42</v>
+      </c>
+      <c r="J286" t="n">
+        <v>13</v>
+      </c>
+      <c r="K286" t="n">
+        <v>13</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>13</v>
+      </c>
+      <c r="O286" t="n">
+        <v>13</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="n">
+        <v>28</v>
+      </c>
+      <c r="I287" t="n">
+        <v>49</v>
+      </c>
+      <c r="J287" t="n">
+        <v>20</v>
+      </c>
+      <c r="K287" t="n">
+        <v>20</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>20</v>
+      </c>
+      <c r="O287" t="n">
+        <v>20</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="n">
+        <v>945</v>
+      </c>
+      <c r="I288" t="n">
+        <v>802</v>
+      </c>
+      <c r="J288" t="n">
+        <v>24</v>
+      </c>
+      <c r="K288" t="n">
+        <v>24</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>24</v>
+      </c>
+      <c r="O288" t="n">
+        <v>24</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+      <c r="H289" t="n">
+        <v>963</v>
+      </c>
+      <c r="I289" t="n">
+        <v>818</v>
+      </c>
+      <c r="J289" t="n">
+        <v>24</v>
+      </c>
+      <c r="K289" t="n">
+        <v>24</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>24</v>
+      </c>
+      <c r="O289" t="n">
+        <v>24</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/stats/welch/f_sel/stat_cmp_condition.xlsx
+++ b/results/stats/welch/f_sel/stat_cmp_condition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S289"/>
+  <dimension ref="A1:S361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.2875264270613108</v>
+        <v>0.2794918330308532</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J16" t="n">
         <v>26</v>
       </c>
       <c r="K16" t="n">
-        <v>19.88095238095238</v>
+        <v>19.44642857142857</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>9.243279105208282</v>
+        <v>8.985940690992837</v>
       </c>
       <c r="N16" t="n">
         <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3371191525240022</v>
+        <v>0.3056242469733937</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J34" t="n">
         <v>26</v>
       </c>
       <c r="K34" t="n">
-        <v>19.88095238095238</v>
+        <v>19.44642857142857</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>9.243279105208282</v>
+        <v>8.985940690992837</v>
       </c>
       <c r="N34" t="n">
         <v>26</v>
       </c>
       <c r="O34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4883720930232557</v>
+        <v>0.4912280701754387</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J52" t="n">
         <v>26</v>
       </c>
       <c r="K52" t="n">
-        <v>21.69047619047619</v>
+        <v>21.46428571428572</v>
       </c>
       <c r="L52" t="n">
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>7.475318420477374</v>
+        <v>7.608651761820425</v>
       </c>
       <c r="N52" t="n">
         <v>26</v>
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.397208489643011</v>
+        <v>0.3934505073517359</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J70" t="n">
         <v>26</v>
       </c>
       <c r="K70" t="n">
-        <v>21.69047619047619</v>
+        <v>21.46428571428572</v>
       </c>
       <c r="L70" t="n">
         <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>7.475318420477374</v>
+        <v>7.608651761820425</v>
       </c>
       <c r="N70" t="n">
         <v>26</v>
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7012,37 +7012,37 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.315911730545877</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J88" t="n">
         <v>26</v>
       </c>
       <c r="K88" t="n">
-        <v>20.475</v>
+        <v>19.87037037037037</v>
       </c>
       <c r="L88" t="n">
         <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>9.071900297071171</v>
+        <v>8.87160742939769</v>
       </c>
       <c r="N88" t="n">
         <v>26</v>
       </c>
       <c r="O88" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
       </c>
       <c r="Q88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8362,37 +8362,37 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.3747988912478026</v>
+        <v>0.3307002811543708</v>
       </c>
       <c r="H106" t="n">
         <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J106" t="n">
         <v>26</v>
       </c>
       <c r="K106" t="n">
-        <v>20.475</v>
+        <v>19.87037037037037</v>
       </c>
       <c r="L106" t="n">
         <v>4</v>
       </c>
       <c r="M106" t="n">
-        <v>9.071900297071171</v>
+        <v>8.87160742939769</v>
       </c>
       <c r="N106" t="n">
         <v>26</v>
       </c>
       <c r="O106" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
       </c>
       <c r="Q106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9712,25 +9712,25 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.511627906976744</v>
+        <v>0.5087719298245613</v>
       </c>
       <c r="H124" t="n">
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J124" t="n">
         <v>26</v>
       </c>
       <c r="K124" t="n">
-        <v>22.02439024390244</v>
+        <v>21.70909090909091</v>
       </c>
       <c r="L124" t="n">
         <v>4</v>
       </c>
       <c r="M124" t="n">
-        <v>7.249853841682498</v>
+        <v>7.455742697649492</v>
       </c>
       <c r="N124" t="n">
         <v>26</v>
@@ -9742,7 +9742,7 @@
         <v>4</v>
       </c>
       <c r="Q124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -11062,25 +11062,25 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4185951780853772</v>
+        <v>0.4093245007809085</v>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J142" t="n">
         <v>26</v>
       </c>
       <c r="K142" t="n">
-        <v>22.02439024390244</v>
+        <v>21.70909090909091</v>
       </c>
       <c r="L142" t="n">
         <v>4</v>
       </c>
       <c r="M142" t="n">
-        <v>7.249853841682498</v>
+        <v>7.455742697649492</v>
       </c>
       <c r="N142" t="n">
         <v>26</v>
@@ -11092,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="Q142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J160" t="n">
         <v>20</v>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -13768,7 +13768,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J178" t="n">
         <v>20</v>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -15118,7 +15118,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J196" t="n">
         <v>20</v>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -16468,7 +16468,7 @@
         <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J214" t="n">
         <v>20</v>
@@ -16733,7 +16733,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16771,10 +16771,10 @@
         <v>104</v>
       </c>
       <c r="J218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
@@ -16783,10 +16783,10 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P218" t="n">
         <v>0</v>
@@ -16808,7 +16808,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16846,10 +16846,10 @@
         <v>105</v>
       </c>
       <c r="J219" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K219" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L219" t="n">
         <v>0</v>
@@ -16858,10 +16858,10 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O219" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
@@ -16883,7 +16883,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -16958,7 +16958,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -17033,7 +17033,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -17071,10 +17071,10 @@
         <v>127</v>
       </c>
       <c r="J222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -17083,10 +17083,10 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P222" t="n">
         <v>0</v>
@@ -17108,7 +17108,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -17146,10 +17146,10 @@
         <v>128</v>
       </c>
       <c r="J223" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K223" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
@@ -17158,10 +17158,10 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O223" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P223" t="n">
         <v>0</v>
@@ -17183,7 +17183,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -17258,7 +17258,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -17333,7 +17333,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -17408,7 +17408,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -17483,7 +17483,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -17558,7 +17558,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -17633,7 +17633,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -17708,7 +17708,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -17783,7 +17783,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -17818,13 +17818,13 @@
         <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J232" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K232" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L232" t="n">
         <v>0</v>
@@ -17833,10 +17833,10 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O232" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -17858,7 +17858,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -17933,7 +17933,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -17971,10 +17971,10 @@
         <v>802</v>
       </c>
       <c r="J234" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K234" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L234" t="n">
         <v>0</v>
@@ -17983,10 +17983,10 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O234" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -18008,7 +18008,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -18046,10 +18046,10 @@
         <v>818</v>
       </c>
       <c r="J235" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K235" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
@@ -18058,10 +18058,10 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O235" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -18083,7 +18083,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -18121,10 +18121,10 @@
         <v>104</v>
       </c>
       <c r="J236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
@@ -18133,10 +18133,10 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P236" t="n">
         <v>0</v>
@@ -18158,7 +18158,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -18196,10 +18196,10 @@
         <v>105</v>
       </c>
       <c r="J237" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K237" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
@@ -18208,10 +18208,10 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O237" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P237" t="n">
         <v>0</v>
@@ -18233,7 +18233,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -18308,7 +18308,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -18383,7 +18383,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -18421,10 +18421,10 @@
         <v>127</v>
       </c>
       <c r="J240" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K240" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L240" t="n">
         <v>0</v>
@@ -18433,10 +18433,10 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O240" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -18458,7 +18458,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -18496,10 +18496,10 @@
         <v>128</v>
       </c>
       <c r="J241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L241" t="n">
         <v>0</v>
@@ -18508,10 +18508,10 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P241" t="n">
         <v>0</v>
@@ -18533,7 +18533,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -18608,7 +18608,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -18683,7 +18683,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -18758,7 +18758,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -18833,7 +18833,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -18908,7 +18908,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -18983,7 +18983,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -19058,7 +19058,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -19133,7 +19133,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -19168,13 +19168,13 @@
         <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J250" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K250" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L250" t="n">
         <v>0</v>
@@ -19183,10 +19183,10 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O250" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P250" t="n">
         <v>0</v>
@@ -19208,7 +19208,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -19283,7 +19283,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -19321,10 +19321,10 @@
         <v>802</v>
       </c>
       <c r="J252" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K252" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L252" t="n">
         <v>0</v>
@@ -19333,10 +19333,10 @@
         <v>0</v>
       </c>
       <c r="N252" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O252" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P252" t="n">
         <v>0</v>
@@ -19358,7 +19358,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -19396,10 +19396,10 @@
         <v>818</v>
       </c>
       <c r="J253" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K253" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L253" t="n">
         <v>0</v>
@@ -19408,10 +19408,10 @@
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O253" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P253" t="n">
         <v>0</v>
@@ -19433,7 +19433,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -19508,7 +19508,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -19546,10 +19546,10 @@
         <v>105</v>
       </c>
       <c r="J255" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K255" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L255" t="n">
         <v>0</v>
@@ -19558,10 +19558,10 @@
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O255" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P255" t="n">
         <v>0</v>
@@ -19583,7 +19583,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -19658,7 +19658,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -19733,7 +19733,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -19808,7 +19808,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -19846,10 +19846,10 @@
         <v>128</v>
       </c>
       <c r="J259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
@@ -19858,10 +19858,10 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P259" t="n">
         <v>0</v>
@@ -19883,7 +19883,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -19958,7 +19958,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -20033,7 +20033,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -20108,7 +20108,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -20183,7 +20183,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -20258,7 +20258,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -20333,7 +20333,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -20408,7 +20408,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -20483,7 +20483,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -20518,13 +20518,13 @@
         <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L268" t="n">
         <v>0</v>
@@ -20533,10 +20533,10 @@
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P268" t="n">
         <v>0</v>
@@ -20558,7 +20558,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -20633,7 +20633,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -20708,7 +20708,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -20783,7 +20783,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -20858,7 +20858,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -20896,10 +20896,10 @@
         <v>105</v>
       </c>
       <c r="J273" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K273" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -20908,10 +20908,10 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O273" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P273" t="n">
         <v>0</v>
@@ -20933,7 +20933,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -21008,7 +21008,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -21083,7 +21083,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -21158,7 +21158,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -21196,10 +21196,10 @@
         <v>128</v>
       </c>
       <c r="J277" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K277" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L277" t="n">
         <v>0</v>
@@ -21208,10 +21208,10 @@
         <v>0</v>
       </c>
       <c r="N277" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O277" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P277" t="n">
         <v>0</v>
@@ -21233,7 +21233,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -21308,7 +21308,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -21383,7 +21383,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -21458,7 +21458,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -21533,7 +21533,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -21608,7 +21608,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -21683,7 +21683,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -21758,7 +21758,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -21833,7 +21833,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -21853,7 +21853,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>STR&gt;2Hz</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -21868,13 +21868,13 @@
         <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J286" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K286" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L286" t="n">
         <v>0</v>
@@ -21883,10 +21883,10 @@
         <v>0</v>
       </c>
       <c r="N286" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O286" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P286" t="n">
         <v>0</v>
@@ -21908,7 +21908,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -21983,7 +21983,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -22058,7 +22058,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>max_f_grp</t>
+          <t>f_grp_max</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -22125,6 +22125,5406 @@
         </is>
       </c>
       <c r="S289" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
+      <c r="H290" t="n">
+        <v>181</v>
+      </c>
+      <c r="I290" t="n">
+        <v>104</v>
+      </c>
+      <c r="J290" t="n">
+        <v>11</v>
+      </c>
+      <c r="K290" t="n">
+        <v>11</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>11</v>
+      </c>
+      <c r="O290" t="n">
+        <v>11</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
+      <c r="H291" t="n">
+        <v>182</v>
+      </c>
+      <c r="I291" t="n">
+        <v>105</v>
+      </c>
+      <c r="J291" t="n">
+        <v>11</v>
+      </c>
+      <c r="K291" t="n">
+        <v>11</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>11</v>
+      </c>
+      <c r="O291" t="n">
+        <v>11</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+      <c r="H292" t="n">
+        <v>101</v>
+      </c>
+      <c r="I292" t="n">
+        <v>111</v>
+      </c>
+      <c r="J292" t="n">
+        <v>11</v>
+      </c>
+      <c r="K292" t="n">
+        <v>11</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>11</v>
+      </c>
+      <c r="O292" t="n">
+        <v>11</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>103</v>
+      </c>
+      <c r="I293" t="n">
+        <v>111</v>
+      </c>
+      <c r="J293" t="n">
+        <v>10</v>
+      </c>
+      <c r="K293" t="n">
+        <v>10</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>10</v>
+      </c>
+      <c r="O293" t="n">
+        <v>10</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>146</v>
+      </c>
+      <c r="I294" t="n">
+        <v>127</v>
+      </c>
+      <c r="J294" t="n">
+        <v>10</v>
+      </c>
+      <c r="K294" t="n">
+        <v>10</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>10</v>
+      </c>
+      <c r="O294" t="n">
+        <v>10</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="n">
+        <v>150</v>
+      </c>
+      <c r="I295" t="n">
+        <v>128</v>
+      </c>
+      <c r="J295" t="n">
+        <v>9</v>
+      </c>
+      <c r="K295" t="n">
+        <v>9</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>9</v>
+      </c>
+      <c r="O295" t="n">
+        <v>9</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="n">
+        <v>198</v>
+      </c>
+      <c r="I296" t="n">
+        <v>730</v>
+      </c>
+      <c r="J296" t="n">
+        <v>21</v>
+      </c>
+      <c r="K296" t="n">
+        <v>21</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>21</v>
+      </c>
+      <c r="O296" t="n">
+        <v>21</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>198</v>
+      </c>
+      <c r="I297" t="n">
+        <v>730</v>
+      </c>
+      <c r="J297" t="n">
+        <v>16</v>
+      </c>
+      <c r="K297" t="n">
+        <v>16</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>16</v>
+      </c>
+      <c r="O297" t="n">
+        <v>16</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>1</v>
+      </c>
+      <c r="H298" t="n">
+        <v>152</v>
+      </c>
+      <c r="I298" t="n">
+        <v>199</v>
+      </c>
+      <c r="J298" t="n">
+        <v>21</v>
+      </c>
+      <c r="K298" t="n">
+        <v>21</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>21</v>
+      </c>
+      <c r="O298" t="n">
+        <v>21</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H299" t="n">
+        <v>21</v>
+      </c>
+      <c r="I299" t="n">
+        <v>26</v>
+      </c>
+      <c r="J299" t="n">
+        <v>17</v>
+      </c>
+      <c r="K299" t="n">
+        <v>17</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>17</v>
+      </c>
+      <c r="O299" t="n">
+        <v>17</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="n">
+        <v>21</v>
+      </c>
+      <c r="I300" t="n">
+        <v>26</v>
+      </c>
+      <c r="J300" t="n">
+        <v>16</v>
+      </c>
+      <c r="K300" t="n">
+        <v>16</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>16</v>
+      </c>
+      <c r="O300" t="n">
+        <v>16</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>37</v>
+      </c>
+      <c r="I301" t="n">
+        <v>40</v>
+      </c>
+      <c r="J301" t="n">
+        <v>20</v>
+      </c>
+      <c r="K301" t="n">
+        <v>20</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>20</v>
+      </c>
+      <c r="O301" t="n">
+        <v>20</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>148</v>
+      </c>
+      <c r="I302" t="n">
+        <v>370</v>
+      </c>
+      <c r="J302" t="n">
+        <v>19</v>
+      </c>
+      <c r="K302" t="n">
+        <v>19</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>19</v>
+      </c>
+      <c r="O302" t="n">
+        <v>19</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>148</v>
+      </c>
+      <c r="I303" t="n">
+        <v>370</v>
+      </c>
+      <c r="J303" t="n">
+        <v>16</v>
+      </c>
+      <c r="K303" t="n">
+        <v>16</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>16</v>
+      </c>
+      <c r="O303" t="n">
+        <v>16</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2</v>
+      </c>
+      <c r="I304" t="n">
+        <v>56</v>
+      </c>
+      <c r="J304" t="n">
+        <v>14</v>
+      </c>
+      <c r="K304" t="n">
+        <v>14</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>14</v>
+      </c>
+      <c r="O304" t="n">
+        <v>14</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H305" t="n">
+        <v>28</v>
+      </c>
+      <c r="I305" t="n">
+        <v>49</v>
+      </c>
+      <c r="J305" t="n">
+        <v>20</v>
+      </c>
+      <c r="K305" t="n">
+        <v>20</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>20</v>
+      </c>
+      <c r="O305" t="n">
+        <v>20</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>945</v>
+      </c>
+      <c r="I306" t="n">
+        <v>802</v>
+      </c>
+      <c r="J306" t="n">
+        <v>20</v>
+      </c>
+      <c r="K306" t="n">
+        <v>20</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>20</v>
+      </c>
+      <c r="O306" t="n">
+        <v>20</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+      <c r="H307" t="n">
+        <v>963</v>
+      </c>
+      <c r="I307" t="n">
+        <v>818</v>
+      </c>
+      <c r="J307" t="n">
+        <v>11</v>
+      </c>
+      <c r="K307" t="n">
+        <v>11</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>11</v>
+      </c>
+      <c r="O307" t="n">
+        <v>11</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>181</v>
+      </c>
+      <c r="I308" t="n">
+        <v>104</v>
+      </c>
+      <c r="J308" t="n">
+        <v>11</v>
+      </c>
+      <c r="K308" t="n">
+        <v>11</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>11</v>
+      </c>
+      <c r="O308" t="n">
+        <v>11</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>182</v>
+      </c>
+      <c r="I309" t="n">
+        <v>105</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11</v>
+      </c>
+      <c r="K309" t="n">
+        <v>11</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>11</v>
+      </c>
+      <c r="O309" t="n">
+        <v>11</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="n">
+        <v>101</v>
+      </c>
+      <c r="I310" t="n">
+        <v>111</v>
+      </c>
+      <c r="J310" t="n">
+        <v>11</v>
+      </c>
+      <c r="K310" t="n">
+        <v>11</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>11</v>
+      </c>
+      <c r="O310" t="n">
+        <v>11</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="n">
+        <v>103</v>
+      </c>
+      <c r="I311" t="n">
+        <v>111</v>
+      </c>
+      <c r="J311" t="n">
+        <v>10</v>
+      </c>
+      <c r="K311" t="n">
+        <v>10</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>10</v>
+      </c>
+      <c r="O311" t="n">
+        <v>10</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+      <c r="H312" t="n">
+        <v>146</v>
+      </c>
+      <c r="I312" t="n">
+        <v>127</v>
+      </c>
+      <c r="J312" t="n">
+        <v>10</v>
+      </c>
+      <c r="K312" t="n">
+        <v>10</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>10</v>
+      </c>
+      <c r="O312" t="n">
+        <v>10</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>150</v>
+      </c>
+      <c r="I313" t="n">
+        <v>128</v>
+      </c>
+      <c r="J313" t="n">
+        <v>9</v>
+      </c>
+      <c r="K313" t="n">
+        <v>9</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>9</v>
+      </c>
+      <c r="O313" t="n">
+        <v>9</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="n">
+        <v>198</v>
+      </c>
+      <c r="I314" t="n">
+        <v>730</v>
+      </c>
+      <c r="J314" t="n">
+        <v>21</v>
+      </c>
+      <c r="K314" t="n">
+        <v>21</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>21</v>
+      </c>
+      <c r="O314" t="n">
+        <v>21</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="n">
+        <v>198</v>
+      </c>
+      <c r="I315" t="n">
+        <v>730</v>
+      </c>
+      <c r="J315" t="n">
+        <v>16</v>
+      </c>
+      <c r="K315" t="n">
+        <v>16</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>16</v>
+      </c>
+      <c r="O315" t="n">
+        <v>16</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="n">
+        <v>152</v>
+      </c>
+      <c r="I316" t="n">
+        <v>199</v>
+      </c>
+      <c r="J316" t="n">
+        <v>21</v>
+      </c>
+      <c r="K316" t="n">
+        <v>21</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>21</v>
+      </c>
+      <c r="O316" t="n">
+        <v>21</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+      <c r="H317" t="n">
+        <v>21</v>
+      </c>
+      <c r="I317" t="n">
+        <v>26</v>
+      </c>
+      <c r="J317" t="n">
+        <v>17</v>
+      </c>
+      <c r="K317" t="n">
+        <v>17</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>17</v>
+      </c>
+      <c r="O317" t="n">
+        <v>17</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
+      <c r="H318" t="n">
+        <v>21</v>
+      </c>
+      <c r="I318" t="n">
+        <v>26</v>
+      </c>
+      <c r="J318" t="n">
+        <v>16</v>
+      </c>
+      <c r="K318" t="n">
+        <v>16</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>16</v>
+      </c>
+      <c r="O318" t="n">
+        <v>16</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+      <c r="H319" t="n">
+        <v>37</v>
+      </c>
+      <c r="I319" t="n">
+        <v>40</v>
+      </c>
+      <c r="J319" t="n">
+        <v>20</v>
+      </c>
+      <c r="K319" t="n">
+        <v>20</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>20</v>
+      </c>
+      <c r="O319" t="n">
+        <v>20</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="n">
+        <v>148</v>
+      </c>
+      <c r="I320" t="n">
+        <v>370</v>
+      </c>
+      <c r="J320" t="n">
+        <v>19</v>
+      </c>
+      <c r="K320" t="n">
+        <v>19</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>19</v>
+      </c>
+      <c r="O320" t="n">
+        <v>19</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="n">
+        <v>148</v>
+      </c>
+      <c r="I321" t="n">
+        <v>370</v>
+      </c>
+      <c r="J321" t="n">
+        <v>16</v>
+      </c>
+      <c r="K321" t="n">
+        <v>16</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>16</v>
+      </c>
+      <c r="O321" t="n">
+        <v>16</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>1</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2</v>
+      </c>
+      <c r="I322" t="n">
+        <v>56</v>
+      </c>
+      <c r="J322" t="n">
+        <v>14</v>
+      </c>
+      <c r="K322" t="n">
+        <v>14</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>14</v>
+      </c>
+      <c r="O322" t="n">
+        <v>14</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H323" t="n">
+        <v>28</v>
+      </c>
+      <c r="I323" t="n">
+        <v>49</v>
+      </c>
+      <c r="J323" t="n">
+        <v>20</v>
+      </c>
+      <c r="K323" t="n">
+        <v>20</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>20</v>
+      </c>
+      <c r="O323" t="n">
+        <v>20</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>1</v>
+      </c>
+      <c r="H324" t="n">
+        <v>945</v>
+      </c>
+      <c r="I324" t="n">
+        <v>802</v>
+      </c>
+      <c r="J324" t="n">
+        <v>20</v>
+      </c>
+      <c r="K324" t="n">
+        <v>20</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>20</v>
+      </c>
+      <c r="O324" t="n">
+        <v>20</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>1</v>
+      </c>
+      <c r="H325" t="n">
+        <v>963</v>
+      </c>
+      <c r="I325" t="n">
+        <v>818</v>
+      </c>
+      <c r="J325" t="n">
+        <v>11</v>
+      </c>
+      <c r="K325" t="n">
+        <v>11</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>11</v>
+      </c>
+      <c r="O325" t="n">
+        <v>11</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>1</v>
+      </c>
+      <c r="H326" t="n">
+        <v>181</v>
+      </c>
+      <c r="I326" t="n">
+        <v>104</v>
+      </c>
+      <c r="J326" t="n">
+        <v>11</v>
+      </c>
+      <c r="K326" t="n">
+        <v>11</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>11</v>
+      </c>
+      <c r="O326" t="n">
+        <v>11</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>1</v>
+      </c>
+      <c r="H327" t="n">
+        <v>182</v>
+      </c>
+      <c r="I327" t="n">
+        <v>105</v>
+      </c>
+      <c r="J327" t="n">
+        <v>11</v>
+      </c>
+      <c r="K327" t="n">
+        <v>11</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>11</v>
+      </c>
+      <c r="O327" t="n">
+        <v>11</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>1</v>
+      </c>
+      <c r="H328" t="n">
+        <v>101</v>
+      </c>
+      <c r="I328" t="n">
+        <v>111</v>
+      </c>
+      <c r="J328" t="n">
+        <v>11</v>
+      </c>
+      <c r="K328" t="n">
+        <v>11</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>11</v>
+      </c>
+      <c r="O328" t="n">
+        <v>11</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+      <c r="H329" t="n">
+        <v>103</v>
+      </c>
+      <c r="I329" t="n">
+        <v>111</v>
+      </c>
+      <c r="J329" t="n">
+        <v>10</v>
+      </c>
+      <c r="K329" t="n">
+        <v>10</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>10</v>
+      </c>
+      <c r="O329" t="n">
+        <v>10</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="n">
+        <v>146</v>
+      </c>
+      <c r="I330" t="n">
+        <v>127</v>
+      </c>
+      <c r="J330" t="n">
+        <v>10</v>
+      </c>
+      <c r="K330" t="n">
+        <v>10</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>10</v>
+      </c>
+      <c r="O330" t="n">
+        <v>10</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>1</v>
+      </c>
+      <c r="H331" t="n">
+        <v>150</v>
+      </c>
+      <c r="I331" t="n">
+        <v>128</v>
+      </c>
+      <c r="J331" t="n">
+        <v>10</v>
+      </c>
+      <c r="K331" t="n">
+        <v>10</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>10</v>
+      </c>
+      <c r="O331" t="n">
+        <v>10</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>1</v>
+      </c>
+      <c r="H332" t="n">
+        <v>198</v>
+      </c>
+      <c r="I332" t="n">
+        <v>730</v>
+      </c>
+      <c r="J332" t="n">
+        <v>21</v>
+      </c>
+      <c r="K332" t="n">
+        <v>21</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>21</v>
+      </c>
+      <c r="O332" t="n">
+        <v>21</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>1</v>
+      </c>
+      <c r="H333" t="n">
+        <v>198</v>
+      </c>
+      <c r="I333" t="n">
+        <v>730</v>
+      </c>
+      <c r="J333" t="n">
+        <v>16</v>
+      </c>
+      <c r="K333" t="n">
+        <v>16</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>16</v>
+      </c>
+      <c r="O333" t="n">
+        <v>16</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>1</v>
+      </c>
+      <c r="H334" t="n">
+        <v>152</v>
+      </c>
+      <c r="I334" t="n">
+        <v>199</v>
+      </c>
+      <c r="J334" t="n">
+        <v>21</v>
+      </c>
+      <c r="K334" t="n">
+        <v>21</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>21</v>
+      </c>
+      <c r="O334" t="n">
+        <v>21</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="n">
+        <v>21</v>
+      </c>
+      <c r="I335" t="n">
+        <v>26</v>
+      </c>
+      <c r="J335" t="n">
+        <v>17</v>
+      </c>
+      <c r="K335" t="n">
+        <v>17</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>17</v>
+      </c>
+      <c r="O335" t="n">
+        <v>17</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="n">
+        <v>21</v>
+      </c>
+      <c r="I336" t="n">
+        <v>26</v>
+      </c>
+      <c r="J336" t="n">
+        <v>16</v>
+      </c>
+      <c r="K336" t="n">
+        <v>16</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>16</v>
+      </c>
+      <c r="O336" t="n">
+        <v>16</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+      <c r="H337" t="n">
+        <v>37</v>
+      </c>
+      <c r="I337" t="n">
+        <v>40</v>
+      </c>
+      <c r="J337" t="n">
+        <v>20</v>
+      </c>
+      <c r="K337" t="n">
+        <v>20</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>20</v>
+      </c>
+      <c r="O337" t="n">
+        <v>20</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
+      <c r="H338" t="n">
+        <v>148</v>
+      </c>
+      <c r="I338" t="n">
+        <v>370</v>
+      </c>
+      <c r="J338" t="n">
+        <v>19</v>
+      </c>
+      <c r="K338" t="n">
+        <v>19</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>19</v>
+      </c>
+      <c r="O338" t="n">
+        <v>19</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
+      <c r="H339" t="n">
+        <v>148</v>
+      </c>
+      <c r="I339" t="n">
+        <v>370</v>
+      </c>
+      <c r="J339" t="n">
+        <v>16</v>
+      </c>
+      <c r="K339" t="n">
+        <v>16</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>16</v>
+      </c>
+      <c r="O339" t="n">
+        <v>16</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>1</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2</v>
+      </c>
+      <c r="I340" t="n">
+        <v>56</v>
+      </c>
+      <c r="J340" t="n">
+        <v>14</v>
+      </c>
+      <c r="K340" t="n">
+        <v>14</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>14</v>
+      </c>
+      <c r="O340" t="n">
+        <v>14</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" t="n">
+        <v>28</v>
+      </c>
+      <c r="I341" t="n">
+        <v>49</v>
+      </c>
+      <c r="J341" t="n">
+        <v>20</v>
+      </c>
+      <c r="K341" t="n">
+        <v>20</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>20</v>
+      </c>
+      <c r="O341" t="n">
+        <v>20</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>1</v>
+      </c>
+      <c r="H342" t="n">
+        <v>945</v>
+      </c>
+      <c r="I342" t="n">
+        <v>802</v>
+      </c>
+      <c r="J342" t="n">
+        <v>24</v>
+      </c>
+      <c r="K342" t="n">
+        <v>24</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>24</v>
+      </c>
+      <c r="O342" t="n">
+        <v>24</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+      <c r="H343" t="n">
+        <v>963</v>
+      </c>
+      <c r="I343" t="n">
+        <v>818</v>
+      </c>
+      <c r="J343" t="n">
+        <v>24</v>
+      </c>
+      <c r="K343" t="n">
+        <v>24</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>24</v>
+      </c>
+      <c r="O343" t="n">
+        <v>24</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>181</v>
+      </c>
+      <c r="I344" t="n">
+        <v>104</v>
+      </c>
+      <c r="J344" t="n">
+        <v>11</v>
+      </c>
+      <c r="K344" t="n">
+        <v>11</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>11</v>
+      </c>
+      <c r="O344" t="n">
+        <v>11</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>1</v>
+      </c>
+      <c r="H345" t="n">
+        <v>182</v>
+      </c>
+      <c r="I345" t="n">
+        <v>105</v>
+      </c>
+      <c r="J345" t="n">
+        <v>11</v>
+      </c>
+      <c r="K345" t="n">
+        <v>11</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>11</v>
+      </c>
+      <c r="O345" t="n">
+        <v>11</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>1</v>
+      </c>
+      <c r="H346" t="n">
+        <v>101</v>
+      </c>
+      <c r="I346" t="n">
+        <v>111</v>
+      </c>
+      <c r="J346" t="n">
+        <v>11</v>
+      </c>
+      <c r="K346" t="n">
+        <v>11</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>11</v>
+      </c>
+      <c r="O346" t="n">
+        <v>11</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>1</v>
+      </c>
+      <c r="H347" t="n">
+        <v>103</v>
+      </c>
+      <c r="I347" t="n">
+        <v>111</v>
+      </c>
+      <c r="J347" t="n">
+        <v>10</v>
+      </c>
+      <c r="K347" t="n">
+        <v>10</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>10</v>
+      </c>
+      <c r="O347" t="n">
+        <v>10</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>146</v>
+      </c>
+      <c r="I348" t="n">
+        <v>127</v>
+      </c>
+      <c r="J348" t="n">
+        <v>10</v>
+      </c>
+      <c r="K348" t="n">
+        <v>10</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>10</v>
+      </c>
+      <c r="O348" t="n">
+        <v>10</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>150</v>
+      </c>
+      <c r="I349" t="n">
+        <v>128</v>
+      </c>
+      <c r="J349" t="n">
+        <v>10</v>
+      </c>
+      <c r="K349" t="n">
+        <v>10</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>10</v>
+      </c>
+      <c r="O349" t="n">
+        <v>10</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>198</v>
+      </c>
+      <c r="I350" t="n">
+        <v>730</v>
+      </c>
+      <c r="J350" t="n">
+        <v>21</v>
+      </c>
+      <c r="K350" t="n">
+        <v>21</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>21</v>
+      </c>
+      <c r="O350" t="n">
+        <v>21</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>198</v>
+      </c>
+      <c r="I351" t="n">
+        <v>730</v>
+      </c>
+      <c r="J351" t="n">
+        <v>16</v>
+      </c>
+      <c r="K351" t="n">
+        <v>16</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>16</v>
+      </c>
+      <c r="O351" t="n">
+        <v>16</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>1</v>
+      </c>
+      <c r="H352" t="n">
+        <v>152</v>
+      </c>
+      <c r="I352" t="n">
+        <v>199</v>
+      </c>
+      <c r="J352" t="n">
+        <v>21</v>
+      </c>
+      <c r="K352" t="n">
+        <v>21</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>21</v>
+      </c>
+      <c r="O352" t="n">
+        <v>21</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>1</v>
+      </c>
+      <c r="H353" t="n">
+        <v>21</v>
+      </c>
+      <c r="I353" t="n">
+        <v>26</v>
+      </c>
+      <c r="J353" t="n">
+        <v>17</v>
+      </c>
+      <c r="K353" t="n">
+        <v>17</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>17</v>
+      </c>
+      <c r="O353" t="n">
+        <v>17</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>1</v>
+      </c>
+      <c r="H354" t="n">
+        <v>21</v>
+      </c>
+      <c r="I354" t="n">
+        <v>26</v>
+      </c>
+      <c r="J354" t="n">
+        <v>16</v>
+      </c>
+      <c r="K354" t="n">
+        <v>16</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>16</v>
+      </c>
+      <c r="O354" t="n">
+        <v>16</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
+      <c r="H355" t="n">
+        <v>37</v>
+      </c>
+      <c r="I355" t="n">
+        <v>40</v>
+      </c>
+      <c r="J355" t="n">
+        <v>20</v>
+      </c>
+      <c r="K355" t="n">
+        <v>20</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>20</v>
+      </c>
+      <c r="O355" t="n">
+        <v>20</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>148</v>
+      </c>
+      <c r="I356" t="n">
+        <v>370</v>
+      </c>
+      <c r="J356" t="n">
+        <v>19</v>
+      </c>
+      <c r="K356" t="n">
+        <v>19</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>19</v>
+      </c>
+      <c r="O356" t="n">
+        <v>19</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>148</v>
+      </c>
+      <c r="I357" t="n">
+        <v>370</v>
+      </c>
+      <c r="J357" t="n">
+        <v>16</v>
+      </c>
+      <c r="K357" t="n">
+        <v>16</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>16</v>
+      </c>
+      <c r="O357" t="n">
+        <v>16</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2</v>
+      </c>
+      <c r="I358" t="n">
+        <v>56</v>
+      </c>
+      <c r="J358" t="n">
+        <v>14</v>
+      </c>
+      <c r="K358" t="n">
+        <v>14</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>14</v>
+      </c>
+      <c r="O358" t="n">
+        <v>14</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>eeg</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>1</v>
+      </c>
+      <c r="H359" t="n">
+        <v>28</v>
+      </c>
+      <c r="I359" t="n">
+        <v>49</v>
+      </c>
+      <c r="J359" t="n">
+        <v>20</v>
+      </c>
+      <c r="K359" t="n">
+        <v>20</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>20</v>
+      </c>
+      <c r="O359" t="n">
+        <v>20</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>1</v>
+      </c>
+      <c r="H360" t="n">
+        <v>945</v>
+      </c>
+      <c r="I360" t="n">
+        <v>802</v>
+      </c>
+      <c r="J360" t="n">
+        <v>24</v>
+      </c>
+      <c r="K360" t="n">
+        <v>24</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>24</v>
+      </c>
+      <c r="O360" t="n">
+        <v>24</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>f_grp_diffmax</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>963</v>
+      </c>
+      <c r="I361" t="n">
+        <v>818</v>
+      </c>
+      <c r="J361" t="n">
+        <v>24</v>
+      </c>
+      <c r="K361" t="n">
+        <v>24</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>24</v>
+      </c>
+      <c r="O361" t="n">
+        <v>24</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="S361" t="inlineStr">
         <is>
           <t>Park</t>
         </is>
